--- a/SWOT.xlsx
+++ b/SWOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79ce744038a9155a/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED55AC6F-89BD-46D8-9F9D-DC8F1DD0F9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{ED55AC6F-89BD-46D8-9F9D-DC8F1DD0F9B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78942AA6-3220-469A-A369-F59E7011C150}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Silné stránky</t>
   </si>
@@ -51,55 +51,37 @@
     <t>Lukrativní pracovní místa</t>
   </si>
   <si>
-    <t>Zastaralost aplikace</t>
-  </si>
-  <si>
     <t>Nedostatek zaměstnanců</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Možnost chyby lidského faktoru</t>
-  </si>
-  <si>
-    <t>Nové programovací technologie</t>
-  </si>
-  <si>
-    <t>Výpadek systému (internetu, či elektřiny)</t>
-  </si>
-  <si>
-    <t>Záloha dat</t>
-  </si>
-  <si>
-    <t>Ztráta dat</t>
-  </si>
-  <si>
-    <t>CSA/A (Car System Administration / Application)</t>
-  </si>
-  <si>
-    <t>Nutnost správného hardwaru</t>
-  </si>
-  <si>
-    <t>Záložní generátor, offline režim</t>
-  </si>
-  <si>
     <t>Intuitivnost aplikace</t>
   </si>
   <si>
     <t>Architektura aplikace</t>
   </si>
   <si>
-    <t>Investice do reklam</t>
-  </si>
-  <si>
-    <t>Školení zaměstnanců</t>
-  </si>
-  <si>
-    <t>Investice do hardwaru</t>
-  </si>
-  <si>
     <t>Úspěšná konkurence</t>
+  </si>
+  <si>
+    <t>CSA/A (Car Servis Administration / Application) SWOT</t>
+  </si>
+  <si>
+    <t>Marketing -&gt; Investice do reklam</t>
+  </si>
+  <si>
+    <t>Možnost chyby lidského faktoru -&gt; Školení zaměstnanců</t>
+  </si>
+  <si>
+    <t>Ztráta dat -&gt; Záloha dat</t>
+  </si>
+  <si>
+    <t>Zastaralost aplikace -&gt; Použít nové programovací technologie</t>
+  </si>
+  <si>
+    <t>Výpadek systému (internetu, či elektřiny) -&gt; Záložní generátor (baterie), offline režim</t>
+  </si>
+  <si>
+    <t>Nutnost správného hardwaru -&gt; Investice do hardwaru</t>
   </si>
 </sst>
 </file>
@@ -146,7 +128,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,17 +350,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -458,13 +429,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -486,7 +474,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -499,6 +487,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,6 +508,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,47 +520,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -914,14 +893,14 @@
   <dimension ref="B1:C27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" customWidth="1"/>
     <col min="4" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -929,10 +908,10 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:3" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -943,95 +922,77 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="2:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="2:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="25"/>
-    </row>
+    <row r="14" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:3" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
